--- a/medicine/Psychotrope/Singapore_sling_(cocktail)/Singapore_sling_(cocktail).xlsx
+++ b/medicine/Psychotrope/Singapore_sling_(cocktail)/Singapore_sling_(cocktail).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Singapour sling est un cocktail de type fancy drink. Il a été créé en 1915 au « Long bar », l'un des deux bars de l'hôtel Raffles de Singapour, permettant aux femmes de donner le change alors qu'elles étaient interdites de boire de l’alcool en public[1],[2].
+Le Singapour sling est un cocktail de type fancy drink. Il a été créé en 1915 au « Long bar », l'un des deux bars de l'hôtel Raffles de Singapour, permettant aux femmes de donner le change alors qu'elles étaient interdites de boire de l’alcool en public,.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Recette[3]</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>3 cl de gin
 1,5 cl de liqueur de cerises (Peter Herring)
@@ -549,7 +563,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Type: Fancy Drink
 Catégorie: Long Drink
